--- a/biology/Histoire de la zoologie et de la botanique/Maurice_Leriche/Maurice_Leriche.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Maurice_Leriche/Maurice_Leriche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maurice Leriche (né le 21 septembre 1875 à Maretz, et mort le 15 septembre 1948 à Monchy-Lagache) est un stratigraphe et paléontologue français, Professeur de paléontologie, géologie et minéralogie, président d'université.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est en 1897 préparateur, puis maître de conférences de paléontologie, à partir de 1906 à la Faculté des sciences de Lille. 
 À partir de 1900, il est collaborateur auxiliaire du Service de la Carte géologique détaillé de la France, puis en 1901 collaborateur étranger au Musée royal d'Histoire naturelle de Belgique. Il devient 1906 Docteur ès sciences naturelles. À partir de 1910, il est professeur de géologie à l'Université libre de Bruxelles et de géologie générale et de géographie physique en 1927 à l'Université de Lille. 
@@ -546,12 +560,14 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur[1]
- Croix de guerre 1914-1918[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur
+ Croix de guerre 1914-1918
  Médaille commémorative de la guerre 1914-1918 (1920)
- Commandeur de l'ordre de Léopold (Belgique)[1]</t>
+ Commandeur de l'ordre de Léopold (Belgique)</t>
         </is>
       </c>
     </row>
